--- a/docs/Process.xlsx
+++ b/docs/Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\Snips\SnipsDoorBell\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2725A68-E578-40E7-82A6-576DD47BFBE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE6356-8640-4FC4-A91B-AC507317DBE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61359A70-F195-4C68-8F23-897A2187912E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Run Phase</t>
   </si>
@@ -114,9 +114,6 @@
     <t>end of connection</t>
   </si>
   <si>
-    <t>TTS</t>
-  </si>
-  <si>
     <t>ask to left message + start record</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>answer yes or message</t>
   </si>
   <si>
-    <t>ask to wait + start record + audio in</t>
-  </si>
-  <si>
     <t>disconnect audio, say goodbye , end record</t>
   </si>
   <si>
@@ -163,6 +157,33 @@
   </si>
   <si>
     <t>say_goobye</t>
+  </si>
+  <si>
+    <t>ask to wait + start record + audio in + announce</t>
+  </si>
+  <si>
+    <t>TTS Doorbell</t>
+  </si>
+  <si>
+    <t>TTS Home Station</t>
+  </si>
+  <si>
+    <t>say_incomming</t>
+  </si>
+  <si>
+    <t>sessionEnded</t>
+  </si>
+  <si>
+    <t>no answer</t>
+  </si>
+  <si>
+    <t>retry counter ++</t>
+  </si>
+  <si>
+    <t>retry counter &lt; max</t>
+  </si>
+  <si>
+    <t>retry counter =  max</t>
   </si>
 </sst>
 </file>
@@ -538,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D5D62-5E4F-487C-9138-772ADCD2F460}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,11 +571,11 @@
     <col min="2" max="3" width="24.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,13 +592,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -590,11 +614,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -608,16 +632,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="4">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -631,20 +658,21 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -652,59 +680,64 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -712,210 +745,219 @@
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -929,73 +971,96 @@
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="4">
+        <v>41</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4">
         <v>5</v>
       </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="4">
         <v>0</v>
       </c>
     </row>

--- a/docs/Process.xlsx
+++ b/docs/Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\Snips\SnipsDoorBell\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE6356-8640-4FC4-A91B-AC507317DBE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C2B3B-2807-48E7-BF36-84954498B490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61359A70-F195-4C68-8F23-897A2187912E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Run Phase</t>
   </si>
@@ -78,9 +78,6 @@
     <t>answer audio in</t>
   </si>
   <si>
-    <t>ask to wait more</t>
-  </si>
-  <si>
     <t>answer ok</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>idle wait intent</t>
   </si>
   <si>
-    <t>no intent detected</t>
-  </si>
-  <si>
     <t>audio in and out</t>
   </si>
   <si>
@@ -184,6 +178,30 @@
   </si>
   <si>
     <t>retry counter =  max</t>
+  </si>
+  <si>
+    <t>ask to wait more reset retry counter</t>
+  </si>
+  <si>
+    <t>say_somebodywait</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>answer message</t>
+  </si>
+  <si>
+    <t>read messages</t>
+  </si>
+  <si>
+    <t>say_messages</t>
+  </si>
+  <si>
+    <t>read messages on home</t>
+  </si>
+  <si>
+    <t>not implemented yet</t>
   </si>
 </sst>
 </file>
@@ -207,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +235,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -245,6 +287,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D5D62-5E4F-487C-9138-772ADCD2F460}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +638,8 @@
     <col min="2" max="3" width="24.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,476 +660,575 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G9" s="9"/>
+      <c r="H9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4">
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Process.xlsx
+++ b/docs/Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\Snips\SnipsDoorBell\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C2B3B-2807-48E7-BF36-84954498B490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940BDA00-4335-4C93-9C19-9D17D3A7F814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61359A70-F195-4C68-8F23-897A2187912E}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,22 +913,22 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5">
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8">
         <v>2</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
